--- a/Excel/Hasil_Pengujian_Map_3_128_avg_length.xlsx
+++ b/Excel/Hasil_Pengujian_Map_3_128_avg_length.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273D4A46-D649-48CC-8026-8B0731600F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E431A9-230A-43B6-BB1B-D87DAA8B973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waktu Pencarian" sheetId="1" r:id="rId1"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,186 +644,186 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>3.0899999999999998E-4</v>
+        <v>1.1787E-3</v>
       </c>
       <c r="D2">
-        <v>7.7240000000000002E-4</v>
+        <v>3.8325999999999998E-3</v>
       </c>
       <c r="E2">
-        <v>2.0634999999999998E-3</v>
+        <v>2.9926399999999999E-2</v>
       </c>
       <c r="F2">
-        <v>8.7808999999999977E-3</v>
+        <v>0.22709670000000001</v>
       </c>
       <c r="G2">
-        <v>2.9814499999999992E-3</v>
+        <v>6.55086E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3.2840000000000001E-4</v>
+        <v>2.6329999999999989E-4</v>
       </c>
       <c r="D3">
-        <v>8.3129999999999988E-4</v>
+        <v>1.1774999999999999E-3</v>
       </c>
       <c r="E3">
-        <v>2.039200000000001E-3</v>
+        <v>5.2580999999999991E-3</v>
       </c>
       <c r="F3">
-        <v>8.8032000000000006E-3</v>
+        <v>2.2951099999999999E-2</v>
       </c>
       <c r="G3">
-        <v>3.000525E-3</v>
+        <v>7.412499999999999E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>3.5129999999999997E-4</v>
+        <v>4.4650000000000001E-4</v>
       </c>
       <c r="D4">
-        <v>8.6409999999999992E-4</v>
+        <v>1.2547999999999999E-3</v>
       </c>
       <c r="E4">
-        <v>2.1202999999999999E-3</v>
+        <v>4.8900000000000002E-3</v>
       </c>
       <c r="F4">
-        <v>9.0650999999999978E-3</v>
+        <v>3.9429100000000002E-2</v>
       </c>
       <c r="G4">
-        <v>3.1001999999999991E-3</v>
+        <v>1.1505100000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3.2499999999999999E-4</v>
+        <v>4.5750000000000001E-4</v>
       </c>
       <c r="D5">
-        <v>6.7880000000000002E-4</v>
+        <v>2.7031999999999998E-3</v>
       </c>
       <c r="E5">
-        <v>2.5477E-3</v>
+        <v>1.8585000000000001E-2</v>
       </c>
       <c r="F5">
-        <v>9.2622000000000017E-3</v>
+        <v>0.12834809999999999</v>
       </c>
       <c r="G5">
-        <v>3.2034250000000002E-3</v>
+        <v>3.7523450000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>3.255E-4</v>
+        <v>4.6060000000000008E-4</v>
       </c>
       <c r="D6">
-        <v>6.8110000000000002E-4</v>
+        <v>2.0341000000000001E-3</v>
       </c>
       <c r="E6">
-        <v>2.4953000000000002E-3</v>
+        <v>5.2364000000000004E-3</v>
       </c>
       <c r="F6">
-        <v>9.3641999999999996E-3</v>
+        <v>2.0995099999999999E-2</v>
       </c>
       <c r="G6">
-        <v>3.216525E-3</v>
+        <v>7.1815500000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>3.6870000000000002E-4</v>
+        <v>8.7159999999999994E-4</v>
       </c>
       <c r="D7">
-        <v>7.2580000000000008E-4</v>
+        <v>3.9292000000000007E-3</v>
       </c>
       <c r="E7">
-        <v>2.6094999999999998E-3</v>
+        <v>3.0237799999999999E-2</v>
       </c>
       <c r="F7">
-        <v>9.3457000000000002E-3</v>
+        <v>0.22818620000000001</v>
       </c>
       <c r="G7">
-        <v>3.2624249999999998E-3</v>
+        <v>6.5806200000000009E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>3.7290000000000001E-4</v>
+        <v>6.0420000000000005E-4</v>
       </c>
       <c r="D8">
-        <v>7.4810000000000002E-4</v>
+        <v>3.7559999999999998E-3</v>
       </c>
       <c r="E8">
-        <v>2.6189999999999998E-3</v>
+        <v>2.85785E-2</v>
       </c>
       <c r="F8">
-        <v>9.4716000000000002E-3</v>
+        <v>0.21551680000000001</v>
       </c>
       <c r="G8">
-        <v>3.3029000000000001E-3</v>
+        <v>6.2113874999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>3.6180000000000001E-4</v>
+        <v>3.9869999999999999E-4</v>
       </c>
       <c r="D9">
-        <v>8.5870000000000011E-4</v>
+        <v>1.1280000000000001E-3</v>
       </c>
       <c r="E9">
-        <v>2.1283999999999999E-3</v>
+        <v>3.4629999999999999E-3</v>
       </c>
       <c r="F9">
-        <v>9.9845999999999997E-3</v>
+        <v>1.30925E-2</v>
       </c>
       <c r="G9">
-        <v>3.333375E-3</v>
+        <v>4.5205499999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -831,229 +831,229 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>3.6600000000000001E-4</v>
+        <v>3.1690000000000001E-4</v>
       </c>
       <c r="D10">
-        <v>1.0646E-3</v>
+        <v>1.4909000000000001E-3</v>
       </c>
       <c r="E10">
-        <v>3.0195999999999999E-3</v>
+        <v>6.6861000000000004E-3</v>
       </c>
       <c r="F10">
-        <v>1.0859600000000001E-2</v>
+        <v>2.7657899999999999E-2</v>
       </c>
       <c r="G10">
-        <v>3.82745E-3</v>
+        <v>9.0379500000000012E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>3.7470000000000011E-4</v>
+        <v>3.1260000000000001E-4</v>
       </c>
       <c r="D11">
-        <v>1.2951E-3</v>
+        <v>1.2615E-3</v>
       </c>
       <c r="E11">
-        <v>2.9640000000000001E-3</v>
+        <v>5.6912999999999998E-3</v>
       </c>
       <c r="F11">
-        <v>1.14816E-2</v>
+        <v>2.3441300000000002E-2</v>
       </c>
       <c r="G11">
-        <v>4.0288499999999996E-3</v>
+        <v>7.6766749999999991E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>4.1189999999999987E-4</v>
+        <v>3.4959999999999999E-4</v>
       </c>
       <c r="D12">
-        <v>1.0606999999999999E-3</v>
+        <v>1.4085E-3</v>
       </c>
       <c r="E12">
-        <v>3.7276000000000002E-3</v>
+        <v>5.3171999999999994E-3</v>
       </c>
       <c r="F12">
-        <v>1.09648E-2</v>
+        <v>2.3318999999999999E-2</v>
       </c>
       <c r="G12">
-        <v>4.0412499999999997E-3</v>
+        <v>7.5985749999999998E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>4.3340000000000002E-4</v>
+        <v>4.7610000000000003E-4</v>
       </c>
       <c r="D13">
-        <v>1.0606000000000001E-3</v>
+        <v>1.3465E-3</v>
       </c>
       <c r="E13">
-        <v>3.1503E-3</v>
+        <v>5.0565999999999996E-3</v>
       </c>
       <c r="F13">
-        <v>1.17372E-2</v>
+        <v>4.0302699999999997E-2</v>
       </c>
       <c r="G13">
-        <v>4.0953750000000001E-3</v>
+        <v>1.1795475E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>4.1009999999999999E-4</v>
+        <v>4.4460000000000002E-4</v>
       </c>
       <c r="D14">
-        <v>1.3661000000000001E-3</v>
+        <v>1.3277E-3</v>
       </c>
       <c r="E14">
-        <v>3.0219999999999999E-3</v>
+        <v>4.9787E-3</v>
       </c>
       <c r="F14">
-        <v>1.1659299999999999E-2</v>
+        <v>3.3247800000000001E-2</v>
       </c>
       <c r="G14">
-        <v>4.114375E-3</v>
+        <v>9.9997000000000003E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>4.7740000000000011E-4</v>
+        <v>4.1849999999999998E-4</v>
       </c>
       <c r="D15">
-        <v>1.1366E-3</v>
+        <v>1.3464E-3</v>
       </c>
       <c r="E15">
-        <v>3.2599E-3</v>
+        <v>5.9956000000000011E-3</v>
       </c>
       <c r="F15">
-        <v>1.18554E-2</v>
+        <v>3.2713100000000002E-2</v>
       </c>
       <c r="G15">
-        <v>4.1823250000000006E-3</v>
+        <v>1.01184E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>4.6279999999999997E-4</v>
+        <v>5.0460000000000001E-4</v>
       </c>
       <c r="D16">
-        <v>1.1458E-3</v>
+        <v>2.7556E-3</v>
       </c>
       <c r="E16">
-        <v>2.8145000000000002E-3</v>
+        <v>1.8834299999999998E-2</v>
       </c>
       <c r="F16">
-        <v>1.26538E-2</v>
+        <v>0.1268425</v>
       </c>
       <c r="G16">
-        <v>4.2692250000000006E-3</v>
+        <v>3.7234250000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>5.174E-4</v>
+        <v>4.529E-4</v>
       </c>
       <c r="D17">
-        <v>1.2348999999999999E-3</v>
+        <v>2.8866999999999999E-3</v>
       </c>
       <c r="E17">
-        <v>2.8955000000000001E-3</v>
+        <v>1.8131399999999999E-2</v>
       </c>
       <c r="F17">
-        <v>1.2838199999999999E-2</v>
+        <v>0.1158699</v>
       </c>
       <c r="G17">
-        <v>4.3715000000000004E-3</v>
+        <v>3.4335224999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>3.6719999999999998E-4</v>
+        <v>3.6600000000000001E-4</v>
       </c>
       <c r="D18">
-        <v>1.0185000000000001E-3</v>
+        <v>1.0646E-3</v>
       </c>
       <c r="E18">
-        <v>3.4959000000000001E-3</v>
+        <v>3.0195999999999999E-3</v>
       </c>
       <c r="F18">
-        <v>1.28536E-2</v>
+        <v>1.0859600000000001E-2</v>
       </c>
       <c r="G18">
-        <v>4.4337999999999999E-3</v>
+        <v>3.82745E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>3.993E-4</v>
+        <v>3.255E-4</v>
       </c>
       <c r="D19">
-        <v>1.0628E-3</v>
+        <v>6.8110000000000002E-4</v>
       </c>
       <c r="E19">
-        <v>3.6158000000000002E-3</v>
+        <v>2.4953000000000002E-3</v>
       </c>
       <c r="F19">
-        <v>1.2736300000000001E-2</v>
+        <v>9.3641999999999996E-3</v>
       </c>
       <c r="G19">
-        <v>4.4535500000000014E-3</v>
+        <v>3.216525E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1061,91 +1061,91 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>3.9869999999999999E-4</v>
+        <v>3.7750000000000001E-4</v>
       </c>
       <c r="D20">
-        <v>1.1280000000000001E-3</v>
+        <v>1.2003999999999999E-3</v>
       </c>
       <c r="E20">
-        <v>3.4629999999999999E-3</v>
+        <v>3.9550999999999996E-3</v>
       </c>
       <c r="F20">
-        <v>1.30925E-2</v>
+        <v>1.5131500000000001E-2</v>
       </c>
       <c r="G20">
-        <v>4.5205499999999999E-3</v>
+        <v>5.1661250000000006E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>4.1090000000000001E-4</v>
+        <v>5.0179999999999995E-4</v>
       </c>
       <c r="D21">
-        <v>9.2749999999999983E-4</v>
+        <v>1.8498E-3</v>
       </c>
       <c r="E21">
-        <v>2.9499999999999999E-3</v>
+        <v>5.4784999999999999E-3</v>
       </c>
       <c r="F21">
-        <v>1.4579E-2</v>
+        <v>2.1144199999999998E-2</v>
       </c>
       <c r="G21">
-        <v>4.7168499999999999E-3</v>
+        <v>7.2435750000000004E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>4.5029999999999999E-4</v>
+        <v>4.6109999999999999E-4</v>
       </c>
       <c r="D22">
-        <v>1.2158E-3</v>
+        <v>1.4361000000000001E-3</v>
       </c>
       <c r="E22">
-        <v>3.699200000000001E-3</v>
+        <v>4.9585999999999996E-3</v>
       </c>
       <c r="F22">
-        <v>1.3886300000000001E-2</v>
+        <v>1.90425E-2</v>
       </c>
       <c r="G22">
-        <v>4.8129000000000002E-3</v>
+        <v>6.4745749999999998E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>5.0330000000000004E-4</v>
+        <v>6.4289999999999996E-4</v>
       </c>
       <c r="D23">
-        <v>1.0089000000000001E-3</v>
+        <v>3.8417000000000008E-3</v>
       </c>
       <c r="E23">
-        <v>3.0441999999999999E-3</v>
+        <v>2.8695099999999991E-2</v>
       </c>
       <c r="F23">
-        <v>1.47706E-2</v>
+        <v>0.21588779999999999</v>
       </c>
       <c r="G23">
-        <v>4.8317500000000001E-3</v>
+        <v>6.2266874999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1153,22 +1153,22 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>4.1229999999999999E-4</v>
+        <v>4.5029999999999999E-4</v>
       </c>
       <c r="D24">
-        <v>1.2401000000000001E-3</v>
+        <v>1.2158E-3</v>
       </c>
       <c r="E24">
-        <v>3.7047999999999998E-3</v>
+        <v>3.699200000000001E-3</v>
       </c>
       <c r="F24">
-        <v>1.42674E-2</v>
+        <v>1.3886300000000001E-2</v>
       </c>
       <c r="G24">
-        <v>4.9061499999999997E-3</v>
+        <v>4.8129000000000002E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1176,91 +1176,91 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>3.9819999999999998E-4</v>
+        <v>4.1229999999999999E-4</v>
       </c>
       <c r="D25">
-        <v>1.2991999999999999E-3</v>
+        <v>1.2401000000000001E-3</v>
       </c>
       <c r="E25">
-        <v>3.7745999999999999E-3</v>
+        <v>3.7047999999999998E-3</v>
       </c>
       <c r="F25">
-        <v>1.42761E-2</v>
+        <v>1.42674E-2</v>
       </c>
       <c r="G25">
-        <v>4.9370250000000011E-3</v>
+        <v>4.9061499999999997E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>4.4319999999999999E-4</v>
+        <v>4.4700000000000002E-4</v>
       </c>
       <c r="D26">
-        <v>1.3642999999999999E-3</v>
+        <v>1.2989E-3</v>
       </c>
       <c r="E26">
-        <v>3.8471E-3</v>
+        <v>4.1857999999999999E-3</v>
       </c>
       <c r="F26">
-        <v>1.4343699999999999E-2</v>
+        <v>1.6177199999999999E-2</v>
       </c>
       <c r="G26">
-        <v>4.9995750000000009E-3</v>
+        <v>5.5272250000000002E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>4.6650000000000001E-4</v>
+        <v>3.5129999999999997E-4</v>
       </c>
       <c r="D27">
-        <v>1.3303E-3</v>
+        <v>1.5943000000000001E-3</v>
       </c>
       <c r="E27">
-        <v>3.9261999999999986E-3</v>
+        <v>6.7426999999999999E-3</v>
       </c>
       <c r="F27">
-        <v>1.4857E-2</v>
+        <v>2.8532700000000001E-2</v>
       </c>
       <c r="G27">
-        <v>5.1450000000000003E-3</v>
+        <v>9.305250000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>3.7750000000000001E-4</v>
+        <v>3.6919999999999998E-4</v>
       </c>
       <c r="D28">
-        <v>1.2003999999999999E-3</v>
+        <v>1.6138999999999999E-3</v>
       </c>
       <c r="E28">
-        <v>3.9550999999999996E-3</v>
+        <v>6.6153999999999987E-3</v>
       </c>
       <c r="F28">
-        <v>1.5131500000000001E-2</v>
+        <v>2.70783E-2</v>
       </c>
       <c r="G28">
-        <v>5.1661250000000006E-3</v>
+        <v>8.9191999999999987E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1268,68 +1268,68 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>4.3209999999999999E-4</v>
+        <v>3.9330000000000007E-4</v>
       </c>
       <c r="D29">
-        <v>1.2607E-3</v>
+        <v>1.5068E-3</v>
       </c>
       <c r="E29">
-        <v>4.0396E-3</v>
+        <v>5.6813999999999996E-3</v>
       </c>
       <c r="F29">
-        <v>1.52511E-2</v>
+        <v>2.4327600000000001E-2</v>
       </c>
       <c r="G29">
-        <v>5.2458750000000014E-3</v>
+        <v>7.9772750000000007E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>4.1229999999999999E-4</v>
+        <v>4.8309999999999998E-4</v>
       </c>
       <c r="D30">
-        <v>8.9010000000000011E-4</v>
+        <v>1.4404999999999999E-3</v>
       </c>
       <c r="E30">
-        <v>4.3134999999999996E-3</v>
+        <v>5.2313000000000004E-3</v>
       </c>
       <c r="F30">
-        <v>1.58043E-2</v>
+        <v>3.3954999999999999E-2</v>
       </c>
       <c r="G30">
-        <v>5.3550500000000001E-3</v>
+        <v>1.0277474999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>4.613000000000001E-4</v>
+        <v>4.6819999999999989E-4</v>
       </c>
       <c r="D31">
-        <v>9.3069999999999991E-4</v>
+        <v>1.4270999999999999E-3</v>
       </c>
       <c r="E31">
-        <v>4.4196999999999986E-3</v>
+        <v>5.9392000000000004E-3</v>
       </c>
       <c r="F31">
-        <v>1.59148E-2</v>
+        <v>3.3131800000000003E-2</v>
       </c>
       <c r="G31">
-        <v>5.4316249999999998E-3</v>
+        <v>1.0241574999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1337,114 +1337,114 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>4.4700000000000002E-4</v>
+        <v>4.5820000000000002E-4</v>
       </c>
       <c r="D32">
-        <v>1.2989E-3</v>
+        <v>1.3856999999999999E-3</v>
       </c>
       <c r="E32">
-        <v>4.1857999999999999E-3</v>
+        <v>5.5929999999999999E-3</v>
       </c>
       <c r="F32">
-        <v>1.6177199999999999E-2</v>
+        <v>3.1098399999999998E-2</v>
       </c>
       <c r="G32">
-        <v>5.5272250000000002E-3</v>
+        <v>9.6338249999999986E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>4.6749999999999998E-4</v>
+        <v>5.0200000000000006E-4</v>
       </c>
       <c r="D33">
-        <v>1.3304E-3</v>
+        <v>2.9910000000000002E-3</v>
       </c>
       <c r="E33">
-        <v>4.2836999999999997E-3</v>
+        <v>1.9494899999999999E-2</v>
       </c>
       <c r="F33">
-        <v>1.6149400000000001E-2</v>
+        <v>0.1161705</v>
       </c>
       <c r="G33">
-        <v>5.5577500000000002E-3</v>
+        <v>3.4789599999999997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>5.1600000000000007E-4</v>
+        <v>3.6719999999999998E-4</v>
       </c>
       <c r="D34">
-        <v>1.4383E-3</v>
+        <v>1.0185000000000001E-3</v>
       </c>
       <c r="E34">
-        <v>4.5501999999999999E-3</v>
+        <v>3.4959000000000001E-3</v>
       </c>
       <c r="F34">
-        <v>1.69751E-2</v>
+        <v>1.28536E-2</v>
       </c>
       <c r="G34">
-        <v>5.8698999999999999E-3</v>
+        <v>4.4337999999999999E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>4.6809999999999999E-4</v>
+        <v>3.7470000000000011E-4</v>
       </c>
       <c r="D35">
-        <v>1.3841999999999999E-3</v>
+        <v>1.2951E-3</v>
       </c>
       <c r="E35">
-        <v>4.5318999999999993E-3</v>
+        <v>2.9640000000000001E-3</v>
       </c>
       <c r="F35">
-        <v>1.9021699999999999E-2</v>
+        <v>1.14816E-2</v>
       </c>
       <c r="G35">
-        <v>6.3514750000000014E-3</v>
+        <v>4.0288499999999996E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>4.6109999999999999E-4</v>
+        <v>4.1189999999999987E-4</v>
       </c>
       <c r="D36">
-        <v>1.4361000000000001E-3</v>
+        <v>1.0606999999999999E-3</v>
       </c>
       <c r="E36">
-        <v>4.9585999999999996E-3</v>
+        <v>3.7276000000000002E-3</v>
       </c>
       <c r="F36">
-        <v>1.90425E-2</v>
+        <v>1.09648E-2</v>
       </c>
       <c r="G36">
-        <v>6.4745749999999998E-3</v>
+        <v>4.0412499999999997E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1452,22 +1452,22 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>5.0529999999999998E-4</v>
+        <v>3.5349999999999997E-4</v>
       </c>
       <c r="D37">
-        <v>1.4890000000000001E-3</v>
+        <v>1.1180999999999999E-3</v>
       </c>
       <c r="E37">
-        <v>5.0810999999999999E-3</v>
+        <v>4.3553999999999997E-3</v>
       </c>
       <c r="F37">
-        <v>1.9095600000000001E-2</v>
+        <v>2.1448100000000001E-2</v>
       </c>
       <c r="G37">
-        <v>6.5427499999999991E-3</v>
+        <v>6.818775E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1475,229 +1475,229 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>3.5349999999999997E-4</v>
+        <v>3.6870000000000002E-4</v>
       </c>
       <c r="D38">
-        <v>1.1180999999999999E-3</v>
+        <v>7.2580000000000008E-4</v>
       </c>
       <c r="E38">
-        <v>4.3553999999999997E-3</v>
+        <v>2.6094999999999998E-3</v>
       </c>
       <c r="F38">
-        <v>2.1448100000000001E-2</v>
+        <v>9.3457000000000002E-3</v>
       </c>
       <c r="G38">
-        <v>6.818775E-3</v>
+        <v>3.2624249999999998E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>3.9839999999999998E-4</v>
+        <v>3.2499999999999999E-4</v>
       </c>
       <c r="D39">
-        <v>1.1980000000000001E-3</v>
+        <v>6.7880000000000002E-4</v>
       </c>
       <c r="E39">
-        <v>4.2662999999999998E-3</v>
+        <v>2.5477E-3</v>
       </c>
       <c r="F39">
-        <v>2.1605699999999999E-2</v>
+        <v>9.2622000000000017E-3</v>
       </c>
       <c r="G39">
-        <v>6.8670999999999992E-3</v>
+        <v>3.2034250000000002E-3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>4.6060000000000008E-4</v>
+        <v>3.0899999999999998E-4</v>
       </c>
       <c r="D40">
-        <v>2.0341000000000001E-3</v>
+        <v>7.7240000000000002E-4</v>
       </c>
       <c r="E40">
-        <v>5.2364000000000004E-3</v>
+        <v>2.0634999999999998E-3</v>
       </c>
       <c r="F40">
-        <v>2.0995099999999999E-2</v>
+        <v>8.7808999999999977E-3</v>
       </c>
       <c r="G40">
-        <v>7.1815500000000001E-3</v>
+        <v>2.9814499999999992E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>5.0179999999999995E-4</v>
+        <v>4.3209999999999999E-4</v>
       </c>
       <c r="D41">
-        <v>1.8498E-3</v>
+        <v>1.2607E-3</v>
       </c>
       <c r="E41">
-        <v>5.4784999999999999E-3</v>
+        <v>4.0396E-3</v>
       </c>
       <c r="F41">
-        <v>2.1144199999999998E-2</v>
+        <v>1.52511E-2</v>
       </c>
       <c r="G41">
-        <v>7.2435750000000004E-3</v>
+        <v>5.2458750000000014E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>2.6329999999999989E-4</v>
+        <v>3.9819999999999998E-4</v>
       </c>
       <c r="D42">
-        <v>1.1774999999999999E-3</v>
+        <v>1.2991999999999999E-3</v>
       </c>
       <c r="E42">
-        <v>5.2580999999999991E-3</v>
+        <v>3.7745999999999999E-3</v>
       </c>
       <c r="F42">
-        <v>2.2951099999999999E-2</v>
+        <v>1.42761E-2</v>
       </c>
       <c r="G42">
-        <v>7.412499999999999E-3</v>
+        <v>4.9370250000000011E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>3.4959999999999999E-4</v>
+        <v>5.0529999999999998E-4</v>
       </c>
       <c r="D43">
-        <v>1.4085E-3</v>
+        <v>1.4890000000000001E-3</v>
       </c>
       <c r="E43">
-        <v>5.3171999999999994E-3</v>
+        <v>5.0810999999999999E-3</v>
       </c>
       <c r="F43">
-        <v>2.3318999999999999E-2</v>
+        <v>1.9095600000000001E-2</v>
       </c>
       <c r="G43">
-        <v>7.5985749999999998E-3</v>
+        <v>6.5427499999999991E-3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C44">
-        <v>3.1260000000000001E-4</v>
+        <v>4.6650000000000001E-4</v>
       </c>
       <c r="D44">
-        <v>1.2615E-3</v>
+        <v>1.3303E-3</v>
       </c>
       <c r="E44">
-        <v>5.6912999999999998E-3</v>
+        <v>3.9261999999999986E-3</v>
       </c>
       <c r="F44">
-        <v>2.3441300000000002E-2</v>
+        <v>1.4857E-2</v>
       </c>
       <c r="G44">
-        <v>7.6766749999999991E-3</v>
+        <v>5.1450000000000003E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>3.9330000000000007E-4</v>
+        <v>4.6809999999999999E-4</v>
       </c>
       <c r="D45">
-        <v>1.5068E-3</v>
+        <v>1.3841999999999999E-3</v>
       </c>
       <c r="E45">
-        <v>5.6813999999999996E-3</v>
+        <v>4.5318999999999993E-3</v>
       </c>
       <c r="F45">
-        <v>2.4327600000000001E-2</v>
+        <v>1.9021699999999999E-2</v>
       </c>
       <c r="G45">
-        <v>7.9772750000000007E-3</v>
+        <v>6.3514750000000014E-3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C46">
-        <v>3.6919999999999998E-4</v>
+        <v>4.6749999999999998E-4</v>
       </c>
       <c r="D46">
-        <v>1.6138999999999999E-3</v>
+        <v>1.3304E-3</v>
       </c>
       <c r="E46">
-        <v>6.6153999999999987E-3</v>
+        <v>4.2836999999999997E-3</v>
       </c>
       <c r="F46">
-        <v>2.70783E-2</v>
+        <v>1.6149400000000001E-2</v>
       </c>
       <c r="G46">
-        <v>8.9191999999999987E-3</v>
+        <v>5.5577500000000002E-3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>3.1690000000000001E-4</v>
+        <v>4.1800000000000002E-4</v>
       </c>
       <c r="D47">
-        <v>1.4909000000000001E-3</v>
+        <v>1.7289E-3</v>
       </c>
       <c r="E47">
-        <v>6.6861000000000004E-3</v>
+        <v>6.8656999999999998E-3</v>
       </c>
       <c r="F47">
-        <v>2.7657899999999999E-2</v>
+        <v>2.7829300000000001E-2</v>
       </c>
       <c r="G47">
-        <v>9.0379500000000012E-3</v>
+        <v>9.2104749999999992E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1705,68 +1705,68 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48">
-        <v>4.1800000000000002E-4</v>
+        <v>4.9630000000000008E-4</v>
       </c>
       <c r="D48">
-        <v>1.7289E-3</v>
+        <v>1.4821000000000001E-3</v>
       </c>
       <c r="E48">
-        <v>6.8656999999999998E-3</v>
+        <v>5.9784E-3</v>
       </c>
       <c r="F48">
-        <v>2.7829300000000001E-2</v>
+        <v>3.2004800000000007E-2</v>
       </c>
       <c r="G48">
-        <v>9.2104749999999992E-3</v>
+        <v>9.9904000000000017E-3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>3.5129999999999997E-4</v>
+        <v>3.993E-4</v>
       </c>
       <c r="D49">
-        <v>1.5943000000000001E-3</v>
+        <v>1.0628E-3</v>
       </c>
       <c r="E49">
-        <v>6.7426999999999999E-3</v>
+        <v>3.6158000000000002E-3</v>
       </c>
       <c r="F49">
-        <v>2.8532700000000001E-2</v>
+        <v>1.2736300000000001E-2</v>
       </c>
       <c r="G49">
-        <v>9.305250000000001E-3</v>
+        <v>4.4535500000000014E-3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>4.5820000000000002E-4</v>
+        <v>4.1229999999999999E-4</v>
       </c>
       <c r="D50">
-        <v>1.3856999999999999E-3</v>
+        <v>8.9010000000000011E-4</v>
       </c>
       <c r="E50">
-        <v>5.5929999999999999E-3</v>
+        <v>4.3134999999999996E-3</v>
       </c>
       <c r="F50">
-        <v>3.1098399999999998E-2</v>
+        <v>1.58043E-2</v>
       </c>
       <c r="G50">
-        <v>9.6338249999999986E-3</v>
+        <v>5.3550500000000001E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1774,350 +1774,351 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C51">
-        <v>4.9630000000000008E-4</v>
+        <v>4.3340000000000002E-4</v>
       </c>
       <c r="D51">
-        <v>1.4821000000000001E-3</v>
+        <v>1.0606000000000001E-3</v>
       </c>
       <c r="E51">
-        <v>5.9784E-3</v>
+        <v>3.1503E-3</v>
       </c>
       <c r="F51">
-        <v>3.2004800000000007E-2</v>
+        <v>1.17372E-2</v>
       </c>
       <c r="G51">
-        <v>9.9904000000000017E-3</v>
+        <v>4.0953750000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>4.4460000000000002E-4</v>
+        <v>4.1009999999999999E-4</v>
       </c>
       <c r="D52">
-        <v>1.3277E-3</v>
+        <v>1.3661000000000001E-3</v>
       </c>
       <c r="E52">
-        <v>4.9787E-3</v>
+        <v>3.0219999999999999E-3</v>
       </c>
       <c r="F52">
-        <v>3.3247800000000001E-2</v>
+        <v>1.1659299999999999E-2</v>
       </c>
       <c r="G52">
-        <v>9.9997000000000003E-3</v>
+        <v>4.114375E-3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>4.1849999999999998E-4</v>
+        <v>4.1090000000000001E-4</v>
       </c>
       <c r="D53">
-        <v>1.3464E-3</v>
+        <v>9.2749999999999983E-4</v>
       </c>
       <c r="E53">
-        <v>5.9956000000000011E-3</v>
+        <v>2.9499999999999999E-3</v>
       </c>
       <c r="F53">
-        <v>3.2713100000000002E-2</v>
+        <v>1.4579E-2</v>
       </c>
       <c r="G53">
-        <v>1.01184E-2</v>
+        <v>4.7168499999999999E-3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>4.6819999999999989E-4</v>
+        <v>3.9839999999999998E-4</v>
       </c>
       <c r="D54">
-        <v>1.4270999999999999E-3</v>
+        <v>1.1980000000000001E-3</v>
       </c>
       <c r="E54">
-        <v>5.9392000000000004E-3</v>
+        <v>4.2662999999999998E-3</v>
       </c>
       <c r="F54">
-        <v>3.3131800000000003E-2</v>
+        <v>2.1605699999999999E-2</v>
       </c>
       <c r="G54">
-        <v>1.0241574999999999E-2</v>
+        <v>6.8670999999999992E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>4.8309999999999998E-4</v>
+        <v>3.7290000000000001E-4</v>
       </c>
       <c r="D55">
-        <v>1.4404999999999999E-3</v>
+        <v>7.4810000000000002E-4</v>
       </c>
       <c r="E55">
-        <v>5.2313000000000004E-3</v>
+        <v>2.6189999999999998E-3</v>
       </c>
       <c r="F55">
-        <v>3.3954999999999999E-2</v>
+        <v>9.4716000000000002E-3</v>
       </c>
       <c r="G55">
-        <v>1.0277474999999999E-2</v>
+        <v>3.3029000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>4.4650000000000001E-4</v>
+        <v>3.5129999999999997E-4</v>
       </c>
       <c r="D56">
-        <v>1.2547999999999999E-3</v>
+        <v>8.6409999999999992E-4</v>
       </c>
       <c r="E56">
-        <v>4.8900000000000002E-3</v>
+        <v>2.1202999999999999E-3</v>
       </c>
       <c r="F56">
-        <v>3.9429100000000002E-2</v>
+        <v>9.0650999999999978E-3</v>
       </c>
       <c r="G56">
-        <v>1.1505100000000001E-2</v>
+        <v>3.1001999999999991E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>4.7610000000000003E-4</v>
+        <v>3.2840000000000001E-4</v>
       </c>
       <c r="D57">
-        <v>1.3465E-3</v>
+        <v>8.3129999999999988E-4</v>
       </c>
       <c r="E57">
-        <v>5.0565999999999996E-3</v>
+        <v>2.039200000000001E-3</v>
       </c>
       <c r="F57">
-        <v>4.0302699999999997E-2</v>
+        <v>8.8032000000000006E-3</v>
       </c>
       <c r="G57">
-        <v>1.1795475E-2</v>
+        <v>3.000525E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C58">
-        <v>4.529E-4</v>
+        <v>4.4319999999999999E-4</v>
       </c>
       <c r="D58">
-        <v>2.8866999999999999E-3</v>
+        <v>1.3642999999999999E-3</v>
       </c>
       <c r="E58">
-        <v>1.8131399999999999E-2</v>
+        <v>3.8471E-3</v>
       </c>
       <c r="F58">
-        <v>0.1158699</v>
+        <v>1.4343699999999999E-2</v>
       </c>
       <c r="G58">
-        <v>3.4335224999999997E-2</v>
+        <v>4.9995750000000009E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C59">
-        <v>5.0200000000000006E-4</v>
+        <v>5.1600000000000007E-4</v>
       </c>
       <c r="D59">
-        <v>2.9910000000000002E-3</v>
+        <v>1.4383E-3</v>
       </c>
       <c r="E59">
-        <v>1.9494899999999999E-2</v>
+        <v>4.5501999999999999E-3</v>
       </c>
       <c r="F59">
-        <v>0.1161705</v>
+        <v>1.69751E-2</v>
       </c>
       <c r="G59">
-        <v>3.4789599999999997E-2</v>
+        <v>5.8698999999999999E-3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C60">
-        <v>5.0460000000000001E-4</v>
+        <v>4.613000000000001E-4</v>
       </c>
       <c r="D60">
-        <v>2.7556E-3</v>
+        <v>9.3069999999999991E-4</v>
       </c>
       <c r="E60">
-        <v>1.8834299999999998E-2</v>
+        <v>4.4196999999999986E-3</v>
       </c>
       <c r="F60">
-        <v>0.1268425</v>
+        <v>1.59148E-2</v>
       </c>
       <c r="G60">
-        <v>3.7234250000000003E-2</v>
+        <v>5.4316249999999998E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C61">
-        <v>4.5750000000000001E-4</v>
+        <v>4.7740000000000011E-4</v>
       </c>
       <c r="D61">
-        <v>2.7031999999999998E-3</v>
+        <v>1.1366E-3</v>
       </c>
       <c r="E61">
-        <v>1.8585000000000001E-2</v>
+        <v>3.2599E-3</v>
       </c>
       <c r="F61">
-        <v>0.12834809999999999</v>
+        <v>1.18554E-2</v>
       </c>
       <c r="G61">
-        <v>3.7523450000000007E-2</v>
+        <v>4.1823250000000006E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>6.0420000000000005E-4</v>
+        <v>4.6279999999999997E-4</v>
       </c>
       <c r="D62">
-        <v>3.7559999999999998E-3</v>
+        <v>1.1458E-3</v>
       </c>
       <c r="E62">
-        <v>2.85785E-2</v>
+        <v>2.8145000000000002E-3</v>
       </c>
       <c r="F62">
-        <v>0.21551680000000001</v>
+        <v>1.26538E-2</v>
       </c>
       <c r="G62">
-        <v>6.2113874999999999E-2</v>
+        <v>4.2692250000000006E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>6.4289999999999996E-4</v>
+        <v>5.0330000000000004E-4</v>
       </c>
       <c r="D63">
-        <v>3.8417000000000008E-3</v>
+        <v>1.0089000000000001E-3</v>
       </c>
       <c r="E63">
-        <v>2.8695099999999991E-2</v>
+        <v>3.0441999999999999E-3</v>
       </c>
       <c r="F63">
-        <v>0.21588779999999999</v>
+        <v>1.47706E-2</v>
       </c>
       <c r="G63">
-        <v>6.2266874999999999E-2</v>
+        <v>4.8317500000000001E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C64">
-        <v>1.1787E-3</v>
+        <v>3.6180000000000001E-4</v>
       </c>
       <c r="D64">
-        <v>3.8325999999999998E-3</v>
+        <v>8.5870000000000011E-4</v>
       </c>
       <c r="E64">
-        <v>2.9926399999999999E-2</v>
+        <v>2.1283999999999999E-3</v>
       </c>
       <c r="F64">
-        <v>0.22709670000000001</v>
+        <v>9.9845999999999997E-3</v>
       </c>
       <c r="G64">
-        <v>6.55086E-2</v>
+        <v>3.333375E-3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C65">
-        <v>8.7159999999999994E-4</v>
+        <v>5.174E-4</v>
       </c>
       <c r="D65">
-        <v>3.9292000000000007E-3</v>
+        <v>1.2348999999999999E-3</v>
       </c>
       <c r="E65">
-        <v>3.0237799999999999E-2</v>
+        <v>2.8955000000000001E-3</v>
       </c>
       <c r="F65">
-        <v>0.22818620000000001</v>
+        <v>1.2838199999999999E-2</v>
       </c>
       <c r="G65">
-        <v>6.5806200000000009E-2</v>
+        <v>4.3715000000000004E-3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="G1:G65"/>
+      <sortCondition ref="A2:A65"/>
+      <sortCondition ref="B2:B65"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8206,8 +8207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8241,125 +8242,125 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
         <v>28</v>
       </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
       <c r="G2">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -8368,90 +8369,90 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -8460,44 +8461,44 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>7.25</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -8506,59 +8507,59 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>8</v>
       </c>
       <c r="G13">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G14">
-        <v>7.25</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>7.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -8566,45 +8567,45 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>7.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -8612,114 +8613,114 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>7.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>7.75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>7.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>7</v>
       </c>
       <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
         <v>7</v>
       </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
       <c r="G21">
-        <v>7.75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>7.75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -8727,22 +8728,22 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23">
         <v>7</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -8750,22 +8751,22 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24">
         <v>7</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -8773,91 +8774,91 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G25">
-        <v>8.25</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G26">
-        <v>8.25</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>8.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G28">
-        <v>9.25</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -8865,22 +8866,22 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>9.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -8888,76 +8889,76 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>9.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31">
-        <v>9.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>9.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -8977,25 +8978,25 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -9003,13 +9004,13 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>10</v>
@@ -9018,7 +9019,7 @@
         <v>10</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -9026,45 +9027,45 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F37">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -9072,183 +9073,183 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>10.5</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>13</v>
+      </c>
+      <c r="G40">
         <v>10</v>
-      </c>
-      <c r="D40">
-        <v>12</v>
-      </c>
-      <c r="E40">
-        <v>9</v>
-      </c>
-      <c r="F40">
-        <v>11</v>
-      </c>
-      <c r="G40">
-        <v>10.5</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E41">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>9</v>
       </c>
       <c r="G41">
-        <v>11</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G42">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F43">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G43">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G44">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G45">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -9256,7 +9257,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>10</v>
@@ -9268,56 +9269,56 @@
         <v>10</v>
       </c>
       <c r="F46">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G46">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F47">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G47">
-        <v>11.25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F48">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G48">
-        <v>11.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -9325,102 +9326,102 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E49">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F49">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G49">
-        <v>11.75</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G50">
-        <v>12</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G51">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F52">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G52">
-        <v>12.25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53">
         <v>12</v>
@@ -9429,292 +9430,293 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G53">
-        <v>12.25</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
         <v>10</v>
       </c>
-      <c r="C54">
-        <v>12</v>
-      </c>
-      <c r="D54">
-        <v>14</v>
-      </c>
       <c r="E54">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54">
-        <v>13</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F55">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G55">
-        <v>13</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F56">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G56">
-        <v>13</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E57">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F57">
         <v>13</v>
       </c>
       <c r="G57">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E58">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G58">
-        <v>13.25</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F59">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G59">
-        <v>13.25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G60">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C61">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E61">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F61">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G61">
-        <v>14.25</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62">
         <v>12</v>
       </c>
-      <c r="D62">
-        <v>16</v>
-      </c>
       <c r="E62">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F62">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G62">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E63">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F63">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G63">
-        <v>14.5</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="F64">
         <v>10</v>
       </c>
-      <c r="D64">
-        <v>10</v>
-      </c>
-      <c r="E64">
-        <v>18</v>
-      </c>
-      <c r="F64">
-        <v>30</v>
-      </c>
       <c r="G64">
-        <v>17</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65">
         <v>7</v>
       </c>
-      <c r="C65">
-        <v>10</v>
-      </c>
       <c r="D65">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F65">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G65">
-        <v>18</v>
+        <v>7.75</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0500-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="G1:G65"/>
+      <sortCondition ref="A2:A65"/>
+      <sortCondition ref="B2:B65"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/Hasil_Pengujian_Map_3_128_avg_length.xlsx
+++ b/Excel/Hasil_Pengujian_Map_3_128_avg_length.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E431A9-230A-43B6-BB1B-D87DAA8B973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29E202D-518C-4761-9BCD-C6674E563E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,22 +670,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>2.6329999999999989E-4</v>
+        <v>4.6060000000000008E-4</v>
       </c>
       <c r="D3">
-        <v>1.1774999999999999E-3</v>
+        <v>2.0341000000000001E-3</v>
       </c>
       <c r="E3">
-        <v>5.2580999999999991E-3</v>
+        <v>5.2364000000000004E-3</v>
       </c>
       <c r="F3">
-        <v>2.2951099999999999E-2</v>
+        <v>2.0995099999999999E-2</v>
       </c>
       <c r="G3">
-        <v>7.412499999999999E-3</v>
+        <v>7.1815500000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -693,22 +693,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>4.4650000000000001E-4</v>
+        <v>2.6329999999999989E-4</v>
       </c>
       <c r="D4">
-        <v>1.2547999999999999E-3</v>
+        <v>1.1774999999999999E-3</v>
       </c>
       <c r="E4">
-        <v>4.8900000000000002E-3</v>
+        <v>5.2580999999999991E-3</v>
       </c>
       <c r="F4">
-        <v>3.9429100000000002E-2</v>
+        <v>2.2951099999999999E-2</v>
       </c>
       <c r="G4">
-        <v>1.1505100000000001E-2</v>
+        <v>7.412499999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -716,22 +716,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>4.5750000000000001E-4</v>
+        <v>4.4650000000000001E-4</v>
       </c>
       <c r="D5">
-        <v>2.7031999999999998E-3</v>
+        <v>1.2547999999999999E-3</v>
       </c>
       <c r="E5">
-        <v>1.8585000000000001E-2</v>
+        <v>4.8900000000000002E-3</v>
       </c>
       <c r="F5">
-        <v>0.12834809999999999</v>
+        <v>3.9429100000000002E-2</v>
       </c>
       <c r="G5">
-        <v>3.7523450000000007E-2</v>
+        <v>1.1505100000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -739,22 +739,22 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>4.6060000000000008E-4</v>
+        <v>4.5750000000000001E-4</v>
       </c>
       <c r="D6">
-        <v>2.0341000000000001E-3</v>
+        <v>2.7031999999999998E-3</v>
       </c>
       <c r="E6">
-        <v>5.2364000000000004E-3</v>
+        <v>1.8585000000000001E-2</v>
       </c>
       <c r="F6">
-        <v>2.0995099999999999E-2</v>
+        <v>0.12834809999999999</v>
       </c>
       <c r="G6">
-        <v>7.1815500000000001E-3</v>
+        <v>3.7523450000000007E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -762,22 +762,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>8.7159999999999994E-4</v>
+        <v>6.0420000000000005E-4</v>
       </c>
       <c r="D7">
-        <v>3.9292000000000007E-3</v>
+        <v>3.7559999999999998E-3</v>
       </c>
       <c r="E7">
-        <v>3.0237799999999999E-2</v>
+        <v>2.85785E-2</v>
       </c>
       <c r="F7">
-        <v>0.22818620000000001</v>
+        <v>0.21551680000000001</v>
       </c>
       <c r="G7">
-        <v>6.5806200000000009E-2</v>
+        <v>6.2113874999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -785,22 +785,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>6.0420000000000005E-4</v>
+        <v>8.7159999999999994E-4</v>
       </c>
       <c r="D8">
-        <v>3.7559999999999998E-3</v>
+        <v>3.9292000000000007E-3</v>
       </c>
       <c r="E8">
-        <v>2.85785E-2</v>
+        <v>3.0237799999999999E-2</v>
       </c>
       <c r="F8">
-        <v>0.21551680000000001</v>
+        <v>0.22818620000000001</v>
       </c>
       <c r="G8">
-        <v>6.2113874999999999E-2</v>
+        <v>6.5806200000000009E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -808,22 +808,22 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>3.9869999999999999E-4</v>
+        <v>3.255E-4</v>
       </c>
       <c r="D9">
-        <v>1.1280000000000001E-3</v>
+        <v>6.8110000000000002E-4</v>
       </c>
       <c r="E9">
-        <v>3.4629999999999999E-3</v>
+        <v>2.4953000000000002E-3</v>
       </c>
       <c r="F9">
-        <v>1.30925E-2</v>
+        <v>9.3641999999999996E-3</v>
       </c>
       <c r="G9">
-        <v>4.5205499999999999E-3</v>
+        <v>3.216525E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -831,22 +831,22 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>3.1690000000000001E-4</v>
+        <v>3.6600000000000001E-4</v>
       </c>
       <c r="D10">
-        <v>1.4909000000000001E-3</v>
+        <v>1.0646E-3</v>
       </c>
       <c r="E10">
-        <v>6.6861000000000004E-3</v>
+        <v>3.0195999999999999E-3</v>
       </c>
       <c r="F10">
-        <v>2.7657899999999999E-2</v>
+        <v>1.0859600000000001E-2</v>
       </c>
       <c r="G10">
-        <v>9.0379500000000012E-3</v>
+        <v>3.82745E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -854,22 +854,22 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>3.1260000000000001E-4</v>
+        <v>3.9869999999999999E-4</v>
       </c>
       <c r="D11">
-        <v>1.2615E-3</v>
+        <v>1.1280000000000001E-3</v>
       </c>
       <c r="E11">
-        <v>5.6912999999999998E-3</v>
+        <v>3.4629999999999999E-3</v>
       </c>
       <c r="F11">
-        <v>2.3441300000000002E-2</v>
+        <v>1.30925E-2</v>
       </c>
       <c r="G11">
-        <v>7.6766749999999991E-3</v>
+        <v>4.5205499999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -877,22 +877,22 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>3.4959999999999999E-4</v>
+        <v>3.7750000000000001E-4</v>
       </c>
       <c r="D12">
-        <v>1.4085E-3</v>
+        <v>1.2003999999999999E-3</v>
       </c>
       <c r="E12">
-        <v>5.3171999999999994E-3</v>
+        <v>3.9550999999999996E-3</v>
       </c>
       <c r="F12">
-        <v>2.3318999999999999E-2</v>
+        <v>1.5131500000000001E-2</v>
       </c>
       <c r="G12">
-        <v>7.5985749999999998E-3</v>
+        <v>5.1661250000000006E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -900,22 +900,22 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>4.7610000000000003E-4</v>
+        <v>4.6109999999999999E-4</v>
       </c>
       <c r="D13">
-        <v>1.3465E-3</v>
+        <v>1.4361000000000001E-3</v>
       </c>
       <c r="E13">
-        <v>5.0565999999999996E-3</v>
+        <v>4.9585999999999996E-3</v>
       </c>
       <c r="F13">
-        <v>4.0302699999999997E-2</v>
+        <v>1.90425E-2</v>
       </c>
       <c r="G13">
-        <v>1.1795475E-2</v>
+        <v>6.4745749999999998E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -923,22 +923,22 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>4.4460000000000002E-4</v>
+        <v>5.0179999999999995E-4</v>
       </c>
       <c r="D14">
-        <v>1.3277E-3</v>
+        <v>1.8498E-3</v>
       </c>
       <c r="E14">
-        <v>4.9787E-3</v>
+        <v>5.4784999999999999E-3</v>
       </c>
       <c r="F14">
-        <v>3.3247800000000001E-2</v>
+        <v>2.1144199999999998E-2</v>
       </c>
       <c r="G14">
-        <v>9.9997000000000003E-3</v>
+        <v>7.2435750000000004E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -946,22 +946,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>4.1849999999999998E-4</v>
+        <v>3.4959999999999999E-4</v>
       </c>
       <c r="D15">
-        <v>1.3464E-3</v>
+        <v>1.4085E-3</v>
       </c>
       <c r="E15">
-        <v>5.9956000000000011E-3</v>
+        <v>5.3171999999999994E-3</v>
       </c>
       <c r="F15">
-        <v>3.2713100000000002E-2</v>
+        <v>2.3318999999999999E-2</v>
       </c>
       <c r="G15">
-        <v>1.01184E-2</v>
+        <v>7.5985749999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -969,22 +969,22 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>5.0460000000000001E-4</v>
+        <v>3.1260000000000001E-4</v>
       </c>
       <c r="D16">
-        <v>2.7556E-3</v>
+        <v>1.2615E-3</v>
       </c>
       <c r="E16">
-        <v>1.8834299999999998E-2</v>
+        <v>5.6912999999999998E-3</v>
       </c>
       <c r="F16">
-        <v>0.1268425</v>
+        <v>2.3441300000000002E-2</v>
       </c>
       <c r="G16">
-        <v>3.7234250000000003E-2</v>
+        <v>7.6766749999999991E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -992,22 +992,22 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>4.529E-4</v>
+        <v>3.1690000000000001E-4</v>
       </c>
       <c r="D17">
-        <v>2.8866999999999999E-3</v>
+        <v>1.4909000000000001E-3</v>
       </c>
       <c r="E17">
-        <v>1.8131399999999999E-2</v>
+        <v>6.6861000000000004E-3</v>
       </c>
       <c r="F17">
-        <v>0.1158699</v>
+        <v>2.7657899999999999E-2</v>
       </c>
       <c r="G17">
-        <v>3.4335224999999997E-2</v>
+        <v>9.0379500000000012E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1015,22 +1015,22 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>3.6600000000000001E-4</v>
+        <v>4.4460000000000002E-4</v>
       </c>
       <c r="D18">
-        <v>1.0646E-3</v>
+        <v>1.3277E-3</v>
       </c>
       <c r="E18">
-        <v>3.0195999999999999E-3</v>
+        <v>4.9787E-3</v>
       </c>
       <c r="F18">
-        <v>1.0859600000000001E-2</v>
+        <v>3.3247800000000001E-2</v>
       </c>
       <c r="G18">
-        <v>3.82745E-3</v>
+        <v>9.9997000000000003E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1038,22 +1038,22 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>3.255E-4</v>
+        <v>4.1849999999999998E-4</v>
       </c>
       <c r="D19">
-        <v>6.8110000000000002E-4</v>
+        <v>1.3464E-3</v>
       </c>
       <c r="E19">
-        <v>2.4953000000000002E-3</v>
+        <v>5.9956000000000011E-3</v>
       </c>
       <c r="F19">
-        <v>9.3641999999999996E-3</v>
+        <v>3.2713100000000002E-2</v>
       </c>
       <c r="G19">
-        <v>3.216525E-3</v>
+        <v>1.01184E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1061,22 +1061,22 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>3.7750000000000001E-4</v>
+        <v>4.7610000000000003E-4</v>
       </c>
       <c r="D20">
-        <v>1.2003999999999999E-3</v>
+        <v>1.3465E-3</v>
       </c>
       <c r="E20">
-        <v>3.9550999999999996E-3</v>
+        <v>5.0565999999999996E-3</v>
       </c>
       <c r="F20">
-        <v>1.5131500000000001E-2</v>
+        <v>4.0302699999999997E-2</v>
       </c>
       <c r="G20">
-        <v>5.1661250000000006E-3</v>
+        <v>1.1795475E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1084,22 +1084,22 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>5.0179999999999995E-4</v>
+        <v>4.529E-4</v>
       </c>
       <c r="D21">
-        <v>1.8498E-3</v>
+        <v>2.8866999999999999E-3</v>
       </c>
       <c r="E21">
-        <v>5.4784999999999999E-3</v>
+        <v>1.8131399999999999E-2</v>
       </c>
       <c r="F21">
-        <v>2.1144199999999998E-2</v>
+        <v>0.1158699</v>
       </c>
       <c r="G21">
-        <v>7.2435750000000004E-3</v>
+        <v>3.4335224999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1107,22 +1107,22 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>4.6109999999999999E-4</v>
+        <v>5.0460000000000001E-4</v>
       </c>
       <c r="D22">
-        <v>1.4361000000000001E-3</v>
+        <v>2.7556E-3</v>
       </c>
       <c r="E22">
-        <v>4.9585999999999996E-3</v>
+        <v>1.8834299999999998E-2</v>
       </c>
       <c r="F22">
-        <v>1.90425E-2</v>
+        <v>0.1268425</v>
       </c>
       <c r="G22">
-        <v>6.4745749999999998E-3</v>
+        <v>3.7234250000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1153,22 +1153,22 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>4.5029999999999999E-4</v>
+        <v>3.0899999999999998E-4</v>
       </c>
       <c r="D24">
-        <v>1.2158E-3</v>
+        <v>7.7240000000000002E-4</v>
       </c>
       <c r="E24">
-        <v>3.699200000000001E-3</v>
+        <v>2.0634999999999998E-3</v>
       </c>
       <c r="F24">
-        <v>1.3886300000000001E-2</v>
+        <v>8.7808999999999977E-3</v>
       </c>
       <c r="G24">
-        <v>4.8129000000000002E-3</v>
+        <v>2.9814499999999992E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1176,22 +1176,22 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C25">
-        <v>4.1229999999999999E-4</v>
+        <v>3.2499999999999999E-4</v>
       </c>
       <c r="D25">
-        <v>1.2401000000000001E-3</v>
+        <v>6.7880000000000002E-4</v>
       </c>
       <c r="E25">
-        <v>3.7047999999999998E-3</v>
+        <v>2.5477E-3</v>
       </c>
       <c r="F25">
-        <v>1.42674E-2</v>
+        <v>9.2622000000000017E-3</v>
       </c>
       <c r="G25">
-        <v>4.9061499999999997E-3</v>
+        <v>3.2034250000000002E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1199,22 +1199,22 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C26">
-        <v>4.4700000000000002E-4</v>
+        <v>3.6870000000000002E-4</v>
       </c>
       <c r="D26">
-        <v>1.2989E-3</v>
+        <v>7.2580000000000008E-4</v>
       </c>
       <c r="E26">
-        <v>4.1857999999999999E-3</v>
+        <v>2.6094999999999998E-3</v>
       </c>
       <c r="F26">
-        <v>1.6177199999999999E-2</v>
+        <v>9.3457000000000002E-3</v>
       </c>
       <c r="G26">
-        <v>5.5272250000000002E-3</v>
+        <v>3.2624249999999998E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1222,22 +1222,22 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>3.5129999999999997E-4</v>
+        <v>3.7470000000000011E-4</v>
       </c>
       <c r="D27">
-        <v>1.5943000000000001E-3</v>
+        <v>1.2951E-3</v>
       </c>
       <c r="E27">
-        <v>6.7426999999999999E-3</v>
+        <v>2.9640000000000001E-3</v>
       </c>
       <c r="F27">
-        <v>2.8532700000000001E-2</v>
+        <v>1.14816E-2</v>
       </c>
       <c r="G27">
-        <v>9.305250000000001E-3</v>
+        <v>4.0288499999999996E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,22 +1245,22 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>3.6919999999999998E-4</v>
+        <v>4.1189999999999987E-4</v>
       </c>
       <c r="D28">
-        <v>1.6138999999999999E-3</v>
+        <v>1.0606999999999999E-3</v>
       </c>
       <c r="E28">
-        <v>6.6153999999999987E-3</v>
+        <v>3.7276000000000002E-3</v>
       </c>
       <c r="F28">
-        <v>2.70783E-2</v>
+        <v>1.09648E-2</v>
       </c>
       <c r="G28">
-        <v>8.9191999999999987E-3</v>
+        <v>4.0412499999999997E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1268,22 +1268,22 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C29">
-        <v>3.9330000000000007E-4</v>
+        <v>3.6719999999999998E-4</v>
       </c>
       <c r="D29">
-        <v>1.5068E-3</v>
+        <v>1.0185000000000001E-3</v>
       </c>
       <c r="E29">
-        <v>5.6813999999999996E-3</v>
+        <v>3.4959000000000001E-3</v>
       </c>
       <c r="F29">
-        <v>2.4327600000000001E-2</v>
+        <v>1.28536E-2</v>
       </c>
       <c r="G29">
-        <v>7.9772750000000007E-3</v>
+        <v>4.4337999999999999E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1291,22 +1291,22 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>4.8309999999999998E-4</v>
+        <v>4.5029999999999999E-4</v>
       </c>
       <c r="D30">
-        <v>1.4404999999999999E-3</v>
+        <v>1.2158E-3</v>
       </c>
       <c r="E30">
-        <v>5.2313000000000004E-3</v>
+        <v>3.699200000000001E-3</v>
       </c>
       <c r="F30">
-        <v>3.3954999999999999E-2</v>
+        <v>1.3886300000000001E-2</v>
       </c>
       <c r="G30">
-        <v>1.0277474999999999E-2</v>
+        <v>4.8129000000000002E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1314,22 +1314,22 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>4.6819999999999989E-4</v>
+        <v>4.1229999999999999E-4</v>
       </c>
       <c r="D31">
-        <v>1.4270999999999999E-3</v>
+        <v>1.2401000000000001E-3</v>
       </c>
       <c r="E31">
-        <v>5.9392000000000004E-3</v>
+        <v>3.7047999999999998E-3</v>
       </c>
       <c r="F31">
-        <v>3.3131800000000003E-2</v>
+        <v>1.42674E-2</v>
       </c>
       <c r="G31">
-        <v>1.0241574999999999E-2</v>
+        <v>4.9061499999999997E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1337,22 +1337,22 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C32">
-        <v>4.5820000000000002E-4</v>
+        <v>3.9819999999999998E-4</v>
       </c>
       <c r="D32">
-        <v>1.3856999999999999E-3</v>
+        <v>1.2991999999999999E-3</v>
       </c>
       <c r="E32">
-        <v>5.5929999999999999E-3</v>
+        <v>3.7745999999999999E-3</v>
       </c>
       <c r="F32">
-        <v>3.1098399999999998E-2</v>
+        <v>1.42761E-2</v>
       </c>
       <c r="G32">
-        <v>9.6338249999999986E-3</v>
+        <v>4.9370250000000011E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1360,22 +1360,22 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C33">
-        <v>5.0200000000000006E-4</v>
+        <v>4.3209999999999999E-4</v>
       </c>
       <c r="D33">
-        <v>2.9910000000000002E-3</v>
+        <v>1.2607E-3</v>
       </c>
       <c r="E33">
-        <v>1.9494899999999999E-2</v>
+        <v>4.0396E-3</v>
       </c>
       <c r="F33">
-        <v>0.1161705</v>
+        <v>1.52511E-2</v>
       </c>
       <c r="G33">
-        <v>3.4789599999999997E-2</v>
+        <v>5.2458750000000014E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1383,22 +1383,22 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>3.6719999999999998E-4</v>
+        <v>4.4700000000000002E-4</v>
       </c>
       <c r="D34">
-        <v>1.0185000000000001E-3</v>
+        <v>1.2989E-3</v>
       </c>
       <c r="E34">
-        <v>3.4959000000000001E-3</v>
+        <v>4.1857999999999999E-3</v>
       </c>
       <c r="F34">
-        <v>1.28536E-2</v>
+        <v>1.6177199999999999E-2</v>
       </c>
       <c r="G34">
-        <v>4.4337999999999999E-3</v>
+        <v>5.5272250000000002E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1406,22 +1406,22 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C35">
-        <v>3.7470000000000011E-4</v>
+        <v>5.0529999999999998E-4</v>
       </c>
       <c r="D35">
-        <v>1.2951E-3</v>
+        <v>1.4890000000000001E-3</v>
       </c>
       <c r="E35">
-        <v>2.9640000000000001E-3</v>
+        <v>5.0810999999999999E-3</v>
       </c>
       <c r="F35">
-        <v>1.14816E-2</v>
+        <v>1.9095600000000001E-2</v>
       </c>
       <c r="G35">
-        <v>4.0288499999999996E-3</v>
+        <v>6.5427499999999991E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1429,22 +1429,22 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36">
-        <v>4.1189999999999987E-4</v>
+        <v>3.5349999999999997E-4</v>
       </c>
       <c r="D36">
-        <v>1.0606999999999999E-3</v>
+        <v>1.1180999999999999E-3</v>
       </c>
       <c r="E36">
-        <v>3.7276000000000002E-3</v>
+        <v>4.3553999999999997E-3</v>
       </c>
       <c r="F36">
-        <v>1.09648E-2</v>
+        <v>2.1448100000000001E-2</v>
       </c>
       <c r="G36">
-        <v>4.0412499999999997E-3</v>
+        <v>6.818775E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1452,22 +1452,22 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>3.5349999999999997E-4</v>
+        <v>3.9330000000000007E-4</v>
       </c>
       <c r="D37">
-        <v>1.1180999999999999E-3</v>
+        <v>1.5068E-3</v>
       </c>
       <c r="E37">
-        <v>4.3553999999999997E-3</v>
+        <v>5.6813999999999996E-3</v>
       </c>
       <c r="F37">
-        <v>2.1448100000000001E-2</v>
+        <v>2.4327600000000001E-2</v>
       </c>
       <c r="G37">
-        <v>6.818775E-3</v>
+        <v>7.9772750000000007E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1475,22 +1475,22 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C38">
-        <v>3.6870000000000002E-4</v>
+        <v>3.6919999999999998E-4</v>
       </c>
       <c r="D38">
-        <v>7.2580000000000008E-4</v>
+        <v>1.6138999999999999E-3</v>
       </c>
       <c r="E38">
-        <v>2.6094999999999998E-3</v>
+        <v>6.6153999999999987E-3</v>
       </c>
       <c r="F38">
-        <v>9.3457000000000002E-3</v>
+        <v>2.70783E-2</v>
       </c>
       <c r="G38">
-        <v>3.2624249999999998E-3</v>
+        <v>8.9191999999999987E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1498,22 +1498,22 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C39">
-        <v>3.2499999999999999E-4</v>
+        <v>3.5129999999999997E-4</v>
       </c>
       <c r="D39">
-        <v>6.7880000000000002E-4</v>
+        <v>1.5943000000000001E-3</v>
       </c>
       <c r="E39">
-        <v>2.5477E-3</v>
+        <v>6.7426999999999999E-3</v>
       </c>
       <c r="F39">
-        <v>9.2622000000000017E-3</v>
+        <v>2.8532700000000001E-2</v>
       </c>
       <c r="G39">
-        <v>3.2034250000000002E-3</v>
+        <v>9.305250000000001E-3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1521,22 +1521,22 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>3.0899999999999998E-4</v>
+        <v>4.5820000000000002E-4</v>
       </c>
       <c r="D40">
-        <v>7.7240000000000002E-4</v>
+        <v>1.3856999999999999E-3</v>
       </c>
       <c r="E40">
-        <v>2.0634999999999998E-3</v>
+        <v>5.5929999999999999E-3</v>
       </c>
       <c r="F40">
-        <v>8.7808999999999977E-3</v>
+        <v>3.1098399999999998E-2</v>
       </c>
       <c r="G40">
-        <v>2.9814499999999992E-3</v>
+        <v>9.6338249999999986E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1544,22 +1544,22 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>4.3209999999999999E-4</v>
+        <v>4.6819999999999989E-4</v>
       </c>
       <c r="D41">
-        <v>1.2607E-3</v>
+        <v>1.4270999999999999E-3</v>
       </c>
       <c r="E41">
-        <v>4.0396E-3</v>
+        <v>5.9392000000000004E-3</v>
       </c>
       <c r="F41">
-        <v>1.52511E-2</v>
+        <v>3.3131800000000003E-2</v>
       </c>
       <c r="G41">
-        <v>5.2458750000000014E-3</v>
+        <v>1.0241574999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1567,22 +1567,22 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C42">
-        <v>3.9819999999999998E-4</v>
+        <v>4.8309999999999998E-4</v>
       </c>
       <c r="D42">
-        <v>1.2991999999999999E-3</v>
+        <v>1.4404999999999999E-3</v>
       </c>
       <c r="E42">
-        <v>3.7745999999999999E-3</v>
+        <v>5.2313000000000004E-3</v>
       </c>
       <c r="F42">
-        <v>1.42761E-2</v>
+        <v>3.3954999999999999E-2</v>
       </c>
       <c r="G42">
-        <v>4.9370250000000011E-3</v>
+        <v>1.0277474999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1590,22 +1590,22 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C43">
-        <v>5.0529999999999998E-4</v>
+        <v>5.0200000000000006E-4</v>
       </c>
       <c r="D43">
-        <v>1.4890000000000001E-3</v>
+        <v>2.9910000000000002E-3</v>
       </c>
       <c r="E43">
-        <v>5.0810999999999999E-3</v>
+        <v>1.9494899999999999E-2</v>
       </c>
       <c r="F43">
-        <v>1.9095600000000001E-2</v>
+        <v>0.1161705</v>
       </c>
       <c r="G43">
-        <v>6.5427499999999991E-3</v>
+        <v>3.4789599999999997E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1613,22 +1613,22 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C44">
-        <v>4.6650000000000001E-4</v>
+        <v>3.2840000000000001E-4</v>
       </c>
       <c r="D44">
-        <v>1.3303E-3</v>
+        <v>8.3129999999999988E-4</v>
       </c>
       <c r="E44">
-        <v>3.9261999999999986E-3</v>
+        <v>2.039200000000001E-3</v>
       </c>
       <c r="F44">
-        <v>1.4857E-2</v>
+        <v>8.8032000000000006E-3</v>
       </c>
       <c r="G44">
-        <v>5.1450000000000003E-3</v>
+        <v>3.000525E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1636,22 +1636,22 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C45">
-        <v>4.6809999999999999E-4</v>
+        <v>3.5129999999999997E-4</v>
       </c>
       <c r="D45">
-        <v>1.3841999999999999E-3</v>
+        <v>8.6409999999999992E-4</v>
       </c>
       <c r="E45">
-        <v>4.5318999999999993E-3</v>
+        <v>2.1202999999999999E-3</v>
       </c>
       <c r="F45">
-        <v>1.9021699999999999E-2</v>
+        <v>9.0650999999999978E-3</v>
       </c>
       <c r="G45">
-        <v>6.3514750000000014E-3</v>
+        <v>3.1001999999999991E-3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1659,22 +1659,22 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C46">
-        <v>4.6749999999999998E-4</v>
+        <v>3.7290000000000001E-4</v>
       </c>
       <c r="D46">
-        <v>1.3304E-3</v>
+        <v>7.4810000000000002E-4</v>
       </c>
       <c r="E46">
-        <v>4.2836999999999997E-3</v>
+        <v>2.6189999999999998E-3</v>
       </c>
       <c r="F46">
-        <v>1.6149400000000001E-2</v>
+        <v>9.4716000000000002E-3</v>
       </c>
       <c r="G46">
-        <v>5.5577500000000002E-3</v>
+        <v>3.3029000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1682,22 +1682,22 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C47">
-        <v>4.1800000000000002E-4</v>
+        <v>4.3340000000000002E-4</v>
       </c>
       <c r="D47">
-        <v>1.7289E-3</v>
+        <v>1.0606000000000001E-3</v>
       </c>
       <c r="E47">
-        <v>6.8656999999999998E-3</v>
+        <v>3.1503E-3</v>
       </c>
       <c r="F47">
-        <v>2.7829300000000001E-2</v>
+        <v>1.17372E-2</v>
       </c>
       <c r="G47">
-        <v>9.2104749999999992E-3</v>
+        <v>4.0953750000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1705,22 +1705,22 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C48">
-        <v>4.9630000000000008E-4</v>
+        <v>4.1009999999999999E-4</v>
       </c>
       <c r="D48">
-        <v>1.4821000000000001E-3</v>
+        <v>1.3661000000000001E-3</v>
       </c>
       <c r="E48">
-        <v>5.9784E-3</v>
+        <v>3.0219999999999999E-3</v>
       </c>
       <c r="F48">
-        <v>3.2004800000000007E-2</v>
+        <v>1.1659299999999999E-2</v>
       </c>
       <c r="G48">
-        <v>9.9904000000000017E-3</v>
+        <v>4.114375E-3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1751,22 +1751,22 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C50">
-        <v>4.1229999999999999E-4</v>
+        <v>4.1090000000000001E-4</v>
       </c>
       <c r="D50">
-        <v>8.9010000000000011E-4</v>
+        <v>9.2749999999999983E-4</v>
       </c>
       <c r="E50">
-        <v>4.3134999999999996E-3</v>
+        <v>2.9499999999999999E-3</v>
       </c>
       <c r="F50">
-        <v>1.58043E-2</v>
+        <v>1.4579E-2</v>
       </c>
       <c r="G50">
-        <v>5.3550500000000001E-3</v>
+        <v>4.7168499999999999E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1774,22 +1774,22 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C51">
-        <v>4.3340000000000002E-4</v>
+        <v>4.4319999999999999E-4</v>
       </c>
       <c r="D51">
-        <v>1.0606000000000001E-3</v>
+        <v>1.3642999999999999E-3</v>
       </c>
       <c r="E51">
-        <v>3.1503E-3</v>
+        <v>3.8471E-3</v>
       </c>
       <c r="F51">
-        <v>1.17372E-2</v>
+        <v>1.4343699999999999E-2</v>
       </c>
       <c r="G51">
-        <v>4.0953750000000001E-3</v>
+        <v>4.9995750000000009E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1797,22 +1797,22 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C52">
-        <v>4.1009999999999999E-4</v>
+        <v>4.6650000000000001E-4</v>
       </c>
       <c r="D52">
-        <v>1.3661000000000001E-3</v>
+        <v>1.3303E-3</v>
       </c>
       <c r="E52">
-        <v>3.0219999999999999E-3</v>
+        <v>3.9261999999999986E-3</v>
       </c>
       <c r="F52">
-        <v>1.1659299999999999E-2</v>
+        <v>1.4857E-2</v>
       </c>
       <c r="G52">
-        <v>4.114375E-3</v>
+        <v>5.1450000000000003E-3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1820,22 +1820,22 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C53">
-        <v>4.1090000000000001E-4</v>
+        <v>4.1229999999999999E-4</v>
       </c>
       <c r="D53">
-        <v>9.2749999999999983E-4</v>
+        <v>8.9010000000000011E-4</v>
       </c>
       <c r="E53">
-        <v>2.9499999999999999E-3</v>
+        <v>4.3134999999999996E-3</v>
       </c>
       <c r="F53">
-        <v>1.4579E-2</v>
+        <v>1.58043E-2</v>
       </c>
       <c r="G53">
-        <v>4.7168499999999999E-3</v>
+        <v>5.3550500000000001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1843,22 +1843,22 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C54">
-        <v>3.9839999999999998E-4</v>
+        <v>4.6749999999999998E-4</v>
       </c>
       <c r="D54">
-        <v>1.1980000000000001E-3</v>
+        <v>1.3304E-3</v>
       </c>
       <c r="E54">
-        <v>4.2662999999999998E-3</v>
+        <v>4.2836999999999997E-3</v>
       </c>
       <c r="F54">
-        <v>2.1605699999999999E-2</v>
+        <v>1.6149400000000001E-2</v>
       </c>
       <c r="G54">
-        <v>6.8670999999999992E-3</v>
+        <v>5.5577500000000002E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1866,22 +1866,22 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C55">
-        <v>3.7290000000000001E-4</v>
+        <v>4.6809999999999999E-4</v>
       </c>
       <c r="D55">
-        <v>7.4810000000000002E-4</v>
+        <v>1.3841999999999999E-3</v>
       </c>
       <c r="E55">
-        <v>2.6189999999999998E-3</v>
+        <v>4.5318999999999993E-3</v>
       </c>
       <c r="F55">
-        <v>9.4716000000000002E-3</v>
+        <v>1.9021699999999999E-2</v>
       </c>
       <c r="G55">
-        <v>3.3029000000000001E-3</v>
+        <v>6.3514750000000014E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1889,22 +1889,22 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56">
-        <v>3.5129999999999997E-4</v>
+        <v>3.9839999999999998E-4</v>
       </c>
       <c r="D56">
-        <v>8.6409999999999992E-4</v>
+        <v>1.1980000000000001E-3</v>
       </c>
       <c r="E56">
-        <v>2.1202999999999999E-3</v>
+        <v>4.2662999999999998E-3</v>
       </c>
       <c r="F56">
-        <v>9.0650999999999978E-3</v>
+        <v>2.1605699999999999E-2</v>
       </c>
       <c r="G56">
-        <v>3.1001999999999991E-3</v>
+        <v>6.8670999999999992E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1912,22 +1912,22 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C57">
-        <v>3.2840000000000001E-4</v>
+        <v>4.1800000000000002E-4</v>
       </c>
       <c r="D57">
-        <v>8.3129999999999988E-4</v>
+        <v>1.7289E-3</v>
       </c>
       <c r="E57">
-        <v>2.039200000000001E-3</v>
+        <v>6.8656999999999998E-3</v>
       </c>
       <c r="F57">
-        <v>8.8032000000000006E-3</v>
+        <v>2.7829300000000001E-2</v>
       </c>
       <c r="G57">
-        <v>3.000525E-3</v>
+        <v>9.2104749999999992E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1935,22 +1935,22 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C58">
-        <v>4.4319999999999999E-4</v>
+        <v>4.9630000000000008E-4</v>
       </c>
       <c r="D58">
-        <v>1.3642999999999999E-3</v>
+        <v>1.4821000000000001E-3</v>
       </c>
       <c r="E58">
-        <v>3.8471E-3</v>
+        <v>5.9784E-3</v>
       </c>
       <c r="F58">
-        <v>1.4343699999999999E-2</v>
+        <v>3.2004800000000007E-2</v>
       </c>
       <c r="G58">
-        <v>4.9995750000000009E-3</v>
+        <v>9.9904000000000017E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -1958,22 +1958,22 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C59">
-        <v>5.1600000000000007E-4</v>
+        <v>3.6180000000000001E-4</v>
       </c>
       <c r="D59">
-        <v>1.4383E-3</v>
+        <v>8.5870000000000011E-4</v>
       </c>
       <c r="E59">
-        <v>4.5501999999999999E-3</v>
+        <v>2.1283999999999999E-3</v>
       </c>
       <c r="F59">
-        <v>1.69751E-2</v>
+        <v>9.9845999999999997E-3</v>
       </c>
       <c r="G59">
-        <v>5.8698999999999999E-3</v>
+        <v>3.333375E-3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -1981,22 +1981,22 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60">
-        <v>4.613000000000001E-4</v>
+        <v>4.7740000000000011E-4</v>
       </c>
       <c r="D60">
-        <v>9.3069999999999991E-4</v>
+        <v>1.1366E-3</v>
       </c>
       <c r="E60">
-        <v>4.4196999999999986E-3</v>
+        <v>3.2599E-3</v>
       </c>
       <c r="F60">
-        <v>1.59148E-2</v>
+        <v>1.18554E-2</v>
       </c>
       <c r="G60">
-        <v>5.4316249999999998E-3</v>
+        <v>4.1823250000000006E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2004,22 +2004,22 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C61">
-        <v>4.7740000000000011E-4</v>
+        <v>4.6279999999999997E-4</v>
       </c>
       <c r="D61">
-        <v>1.1366E-3</v>
+        <v>1.1458E-3</v>
       </c>
       <c r="E61">
-        <v>3.2599E-3</v>
+        <v>2.8145000000000002E-3</v>
       </c>
       <c r="F61">
-        <v>1.18554E-2</v>
+        <v>1.26538E-2</v>
       </c>
       <c r="G61">
-        <v>4.1823250000000006E-3</v>
+        <v>4.2692250000000006E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2027,22 +2027,22 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62">
-        <v>4.6279999999999997E-4</v>
+        <v>5.0330000000000004E-4</v>
       </c>
       <c r="D62">
-        <v>1.1458E-3</v>
+        <v>1.0089000000000001E-3</v>
       </c>
       <c r="E62">
-        <v>2.8145000000000002E-3</v>
+        <v>3.0441999999999999E-3</v>
       </c>
       <c r="F62">
-        <v>1.26538E-2</v>
+        <v>1.47706E-2</v>
       </c>
       <c r="G62">
-        <v>4.2692250000000006E-3</v>
+        <v>4.8317500000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2050,22 +2050,22 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C63">
-        <v>5.0330000000000004E-4</v>
+        <v>4.613000000000001E-4</v>
       </c>
       <c r="D63">
-        <v>1.0089000000000001E-3</v>
+        <v>9.3069999999999991E-4</v>
       </c>
       <c r="E63">
-        <v>3.0441999999999999E-3</v>
+        <v>4.4196999999999986E-3</v>
       </c>
       <c r="F63">
-        <v>1.47706E-2</v>
+        <v>1.59148E-2</v>
       </c>
       <c r="G63">
-        <v>4.8317500000000001E-3</v>
+        <v>5.4316249999999998E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2073,22 +2073,22 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C64">
-        <v>3.6180000000000001E-4</v>
+        <v>5.1600000000000007E-4</v>
       </c>
       <c r="D64">
-        <v>8.5870000000000011E-4</v>
+        <v>1.4383E-3</v>
       </c>
       <c r="E64">
-        <v>2.1283999999999999E-3</v>
+        <v>4.5501999999999999E-3</v>
       </c>
       <c r="F64">
-        <v>9.9845999999999997E-3</v>
+        <v>1.69751E-2</v>
       </c>
       <c r="G64">
-        <v>3.333375E-3</v>
+        <v>5.8698999999999999E-3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2117,8 +2117,7 @@
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="A2:A65"/>
-      <sortCondition ref="B2:B65"/>
+      <sortCondition ref="A1:A65"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
